--- a/controller.xlsx
+++ b/controller.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Git\servicenow-knowledge-import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\git\github\jack-thomas\servicenow-knowledge-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB7DBF7-A14F-4A6F-B896-6E7E73341DAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FDBA11-BD62-466F-9C96-F7822913B6A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{978249BA-1CE3-4494-9553-CB42405BACA0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>document</t>
   </si>
@@ -59,22 +59,19 @@
     <t>Example.docx</t>
   </si>
   <si>
-    <t>Supply Chain Knowledge</t>
-  </si>
-  <si>
-    <t>Contracts</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
     <t>3816c068dbff7fc0bdec1329689619e6</t>
   </si>
   <si>
-    <t>jharb</t>
-  </si>
-  <si>
     <t>tag1, tag2, etc</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>jack.thomas</t>
   </si>
 </sst>
 </file>
@@ -439,7 +436,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,22 +478,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
